--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-81778.23566941982</v>
+        <v>-83665.81718582164</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>272.6094053264177</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>173.4266708330023</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>28.25293961294787</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>78.7004702173497</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>73.58064975524228</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,7 +905,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>50.68035820658839</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>106.0725670814544</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>7.51168964393492</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>214.8251240751937</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>169.0361482981421</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>38.70836584354073</v>
       </c>
       <c r="T10" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>49.12791688416448</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>134.6451640076506</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>30.51875615035183</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,22 +2050,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>208.3886762815593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>215.1816635145756</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>82.38190657936102</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>170.5809693952292</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>114.1230127207788</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>76.61663461570789</v>
       </c>
       <c r="E31" t="n">
-        <v>53.06424422884886</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897903</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571497</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523567</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789475</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463158</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789547</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1129.234822142136</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2127.158480917584</v>
+        <v>2168.202948062278</v>
       </c>
       <c r="X2" t="n">
-        <v>1753.692722656504</v>
+        <v>1794.737189801198</v>
       </c>
       <c r="Y2" t="n">
-        <v>1363.553390680693</v>
+        <v>1404.597857825387</v>
       </c>
     </row>
     <row r="3">
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>444.0275768541695</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="C4" t="n">
-        <v>444.0275768541695</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="D4" t="n">
-        <v>444.0275768541695</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>315.4238416165513</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541695</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541695</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X4" t="n">
-        <v>444.0275768541695</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.0275768541695</v>
+        <v>484.4236418782189</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1297.230130518035</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>504.8469194967738</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>119.0586668985295</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2057.295728843236</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1683.829970582156</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1683.829970582156</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>620.9849770534499</v>
       </c>
       <c r="T7" t="n">
-        <v>500.8207968750362</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U7" t="n">
-        <v>211.6471865296041</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1533.27522618254</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.312709242129</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>1253.353745540124</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X8" t="n">
-        <v>2090.6186503862</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y8" t="n">
-        <v>1919.875066246662</v>
+        <v>1998.219284210996</v>
       </c>
     </row>
     <row r="9">
@@ -4857,31 +4857,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4902,28 +4902,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>659.6127056221363</v>
       </c>
       <c r="T10" t="n">
-        <v>343.1165921657965</v>
+        <v>659.6127056221363</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>659.6127056221363</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>404.9282174162495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,46 +5024,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,19 +5115,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>720.4504516500519</v>
+        <v>315.0165716093184</v>
       </c>
       <c r="C13" t="n">
-        <v>551.5142687221451</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="D13" t="n">
-        <v>401.3976293098093</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E13" t="n">
-        <v>401.3976293098093</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F13" t="n">
-        <v>401.3976293098093</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G13" t="n">
-        <v>233.2223076296299</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,16 +5203,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5224,25 +5224,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W13" t="n">
-        <v>720.4504516500519</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X13" t="n">
-        <v>720.4504516500519</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y13" t="n">
-        <v>720.4504516500519</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>444.8933943850826</v>
+        <v>237.7764125461483</v>
       </c>
       <c r="C16" t="n">
-        <v>275.9572114571757</v>
+        <v>237.7764125461483</v>
       </c>
       <c r="D16" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,46 +5440,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655734</v>
+        <v>755.1831334811262</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286127</v>
+        <v>465.7659634441657</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286127</v>
+        <v>237.7764125461483</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.8933943850826</v>
+        <v>237.7764125461483</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,49 +5498,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5601,7 +5601,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5610,10 +5610,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C19" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>744.6095311599584</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X19" t="n">
-        <v>744.6095311599584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,37 +5747,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5838,7 +5838,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028581</v>
+        <v>392.0201325405892</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028581</v>
+        <v>392.0201325405892</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028581</v>
+        <v>392.0201325405892</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028581</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>609.3753482118777</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028581</v>
+        <v>392.0201325405892</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028581</v>
+        <v>392.0201325405892</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +5999,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.7235151749151</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C25" t="n">
-        <v>563.7235151749151</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D25" t="n">
-        <v>563.7235151749151</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>874.9271131227922</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>874.9271131227922</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>791.7130660729324</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X25" t="n">
-        <v>563.7235151749151</v>
+        <v>437.6964226305957</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.7235151749151</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="26">
@@ -6203,40 +6203,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,28 +6245,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>711.0729548808318</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1383.640500132874</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1159.855084922379</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1159.855084922379</v>
+        <v>786.0822064765185</v>
       </c>
       <c r="V28" t="n">
-        <v>1159.855084922379</v>
+        <v>531.3977182706317</v>
       </c>
       <c r="W28" t="n">
-        <v>1159.855084922379</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>931.865534024362</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y28" t="n">
-        <v>711.0729548808318</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6476,13 +6476,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,25 +6543,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>565.4200295030881</v>
+        <v>620.7342676598902</v>
       </c>
       <c r="C31" t="n">
-        <v>452.2447118565524</v>
+        <v>620.7342676598902</v>
       </c>
       <c r="D31" t="n">
-        <v>357.8889377255873</v>
+        <v>543.3437276440242</v>
       </c>
       <c r="E31" t="n">
-        <v>304.2886910297804</v>
+        <v>451.1914993430018</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>360.0624171264622</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309717</v>
+        <v>247.6479607276536</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933503</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962049</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323873</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818802</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>957.9946671386961</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652475</v>
+        <v>785.7659815220495</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030881</v>
+        <v>620.7342676598902</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
@@ -6880,28 +6880,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7032,10 +7032,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525396</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254953</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7117,7 +7117,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,13 +7163,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7181,43 +7181,43 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,28 +7394,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7424,16 +7424,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7582,13 +7582,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>15.83804904622903</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208058</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,10 +10826,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208057</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>118.1189042144634</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>14.26866435988552</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>118.0967168678605</v>
+        <v>9.461745143208546</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23701,7 +23701,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>78.1343220550317</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>10.52799187446152</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>204.14109175723</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>48.00368395686556</v>
       </c>
     </row>
     <row r="26">
@@ -24601,16 +24601,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>83.79779726282443</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>16.79558177394743</v>
       </c>
       <c r="E31" t="n">
-        <v>38.16646178916321</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571487</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523577</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>7.247535904753022e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-2.557953848736361e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1160488.798463052</v>
+        <v>1160488.798463051</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524996</v>
+        <v>287364.6194524994</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524994</v>
@@ -26326,34 +26326,34 @@
         <v>273720.3418163963</v>
       </c>
       <c r="G2" t="n">
-        <v>273720.3418163964</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="H2" t="n">
         <v>273720.3418163962</v>
       </c>
       <c r="I2" t="n">
-        <v>273720.3418163962</v>
+        <v>273720.3418163963</v>
       </c>
       <c r="J2" t="n">
-        <v>273720.3418163961</v>
+        <v>273720.3418163964</v>
       </c>
       <c r="K2" t="n">
         <v>284775.4961416893</v>
       </c>
       <c r="L2" t="n">
-        <v>287364.6194524994</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="M2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="N2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524991</v>
       </c>
       <c r="P2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524994</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284562</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086668</v>
+        <v>10342.9068008669</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284561</v>
       </c>
     </row>
     <row r="4">
@@ -26430,31 +26430,31 @@
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="H4" t="n">
+        <v>22174.60758687068</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="J4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="H4" t="n">
-        <v>22174.60758687073</v>
-      </c>
-      <c r="I4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="J4" t="n">
-        <v>22174.6075868707</v>
-      </c>
       <c r="K4" t="n">
-        <v>40339.23010106725</v>
+        <v>40339.23010106723</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.3948281912</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
       </c>
-      <c r="N4" t="n">
-        <v>44593.39482819116</v>
-      </c>
       <c r="O4" t="n">
-        <v>44593.39482819116</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-551095.2056119789</v>
       </c>
       <c r="C6" t="n">
-        <v>38872.67360256554</v>
+        <v>38872.67360256545</v>
       </c>
       <c r="D6" t="n">
-        <v>38872.67360256557</v>
+        <v>38872.67360256553</v>
       </c>
       <c r="E6" t="n">
-        <v>-365601.6281960872</v>
+        <v>-365699.0873220594</v>
       </c>
       <c r="F6" t="n">
-        <v>159558.4082808089</v>
+        <v>159460.9491548368</v>
       </c>
       <c r="G6" t="n">
-        <v>159558.4082808091</v>
+        <v>159460.9491548368</v>
       </c>
       <c r="H6" t="n">
-        <v>159558.4082808088</v>
+        <v>159460.9491548367</v>
       </c>
       <c r="I6" t="n">
-        <v>159558.4082808087</v>
+        <v>159460.9491548368</v>
       </c>
       <c r="J6" t="n">
-        <v>-16864.81091178415</v>
+        <v>-16962.27003775597</v>
       </c>
       <c r="K6" t="n">
-        <v>103645.4522075536</v>
+        <v>103626.9584696193</v>
       </c>
       <c r="L6" t="n">
-        <v>134713.2120034161</v>
+        <v>134713.2120034158</v>
       </c>
       <c r="M6" t="n">
-        <v>10255.10357044551</v>
+        <v>10255.10357044548</v>
       </c>
       <c r="N6" t="n">
-        <v>145056.1188042828</v>
+        <v>145056.1188042826</v>
       </c>
       <c r="O6" t="n">
-        <v>145056.1188042825</v>
+        <v>145056.1188042826</v>
       </c>
       <c r="P6" t="n">
-        <v>100893.5135014369</v>
+        <v>100893.5135014372</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
@@ -26719,10 +26719,10 @@
         <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,37 +26735,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108355</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855701</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>110.1244363370628</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>175.8142978844107</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>118.1810230336213</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>77.47041862444544</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>291.6922420157653</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,7 +27625,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>356.1956875351231</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,19 +27670,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>106.0729718685645</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>244.6259536798931</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>167.1052459970681</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>217.2017903579115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>173.4371731064782</v>
       </c>
       <c r="T10" t="n">
-        <v>56.01837628787189</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-7.105427357601002e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855703</v>
       </c>
     </row>
     <row r="32">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>222.9314639777537</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36452,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768301</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412265</v>
+        <v>67.71102679412255</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043187</v>
+        <v>94.42895660043177</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,10 +37546,10 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523304</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
